--- a/biology/Zoologie/Canard_des_Bahamas/Canard_des_Bahamas.xlsx
+++ b/biology/Zoologie/Canard_des_Bahamas/Canard_des_Bahamas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anas bahamensis
-Le Canard des Bahamas,  Pilet des Bahamas ou Canard à joues blanches (Anas bahamensis) est une espèce de canard de surface d'Amérique, des Caraïbes et des Galápagos[1]. Certains des spécimens de ces espèces sont partiellement migrateurs, nidifiant en Argentine et hivernant plus au nord.
+Le Canard des Bahamas,  Pilet des Bahamas ou Canard à joues blanches (Anas bahamensis) est une espèce de canard de surface d'Amérique, des Caraïbes et des Galápagos. Certains des spécimens de ces espèces sont partiellement migrateurs, nidifiant en Argentine et hivernant plus au nord.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'instar de nombreux canards de l'hémisphère sud, il n'y a pas de dimorphisme sexuel. Ce canard est principalement brun avec des joues blanches, la première partie du bec rouge bordé de noir et la seconde partie grise[1]. Il ne peut pas être confondu avec un autre canard de sa taille.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'instar de nombreux canards de l'hémisphère sud, il n'y a pas de dimorphisme sexuel. Ce canard est principalement brun avec des joues blanches, la première partie du bec rouge bordé de noir et la seconde partie grise. Il ne peut pas être confondu avec un autre canard de sa taille.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canard des Bahamas se nourrit de plantes aquatiques et des petites créatures de surface obtenues en plongeant. Ils nichent à même le sol, près de l'eau.
 Ces canards vivent en couples ou en petits groupes.
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit sur le continent américain : son aire de répartition s'étendant du sud-est de la Floride (voire au Texas) jusqu'en Argentine.
 Il peut être aperçu en Europe (France...), il s'agit alors de spécimens, ou de leur descendants, échappés de parc ornithologique.
@@ -607,7 +625,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans les zones humides avec un important degré de salinité, telles que les lacs saumâtres, les estuaires et les mangroves.
 </t>
@@ -638,11 +658,13 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite et nommée pour la première fois par Carl von Linné dans son Systema Naturae en 1758[2]. Son nom n'a pas changé depuis.
-Trois sous-espèces sont reconnues[3] A. b. bahamensis aux Caraïbes, A. b galapagensis aux Galápagos, et la sous-espèce la plus grande A. b. rubirostris dans le reste de l'Amérique du Sud.
-Une variété dite argentée est considérée en France comme domestique[4]. Ce sont des canards d'ornement.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cette espèce a été décrite et nommée pour la première fois par Carl von Linné dans son Systema Naturae en 1758. Son nom n'a pas changé depuis.
+Trois sous-espèces sont reconnues A. b. bahamensis aux Caraïbes, A. b galapagensis aux Galápagos, et la sous-espèce la plus grande A. b. rubirostris dans le reste de l'Amérique du Sud.
+Une variété dite argentée est considérée en France comme domestique. Ce sont des canards d'ornement.
 D'après Alan P. Peterson, cette espèce est constituée des trois sous-espèces suivantes :
 Anas bahamensis bahamensis Linnaeus 1758 ;
 Anas bahamensis galapagensis (Ridgway) 1890 ;
